--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1243955.418320466</v>
+        <v>1211531.698056342</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.953956421</v>
+        <v>189902.9539564206</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>27.20749149289985</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>108.340822376376</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +835,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186274</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>61.4954412004503</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>296.2411725869737</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0.5736554365940264</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.4625225902374</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>397.0475158885857</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>141.4106407312802</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>48.91401559658154</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1570,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>54.47555601903387</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>181.4741358095191</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>172.0766384386615</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>16.60557849018884</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3980171505017</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.0313798843948</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>88.47941361700371</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>334.5817096732204</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>166.0588731052227</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>47.1416784925591</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>125.0463248722763</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2615,10 +2615,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>105.9602739879884</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>146.9739705604689</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>55.84003136202637</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>408.874264998772</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.652197874654915</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,19 +3269,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>384.732060920542</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>87.52569157140292</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3427,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>22.98569063694849</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,10 +3442,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>247.4075278344598</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>14.89518631743352</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>115.2373148110768</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>155.4526127311935</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,16 +3743,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>81.12200652863805</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>281.5496867510636</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3983,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.998219257061432</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>52.26209087956632</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381.1377017843616</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C2" t="n">
-        <v>381.1377017843616</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2669.66677637893</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2415.904991017021</v>
       </c>
       <c r="V2" t="n">
-        <v>1884.111287355489</v>
+        <v>2084.84210367345</v>
       </c>
       <c r="W2" t="n">
-        <v>1531.342632085375</v>
+        <v>2084.84210367345</v>
       </c>
       <c r="X2" t="n">
-        <v>1157.876873824295</v>
+        <v>1711.37634541237</v>
       </c>
       <c r="Y2" t="n">
-        <v>767.7375418484835</v>
+        <v>1321.237013436559</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644633</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969935</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1577.945354755378</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C5" t="n">
-        <v>1208.982837814967</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>850.7171392082162</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>464.928886609972</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>2354.684526795312</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y5" t="n">
-        <v>1964.5451948195</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4626,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2696.569641082269</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2696.569641082269</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2696.569641082269</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.575150942547</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
         <v>505.8730812692495</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>365.6939024587812</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>365.6939024587812</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978288</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.447402037877</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.181703431126</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E11" t="n">
-        <v>1193.181703431126</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>782.1957986415189</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
@@ -5045,46 +5045,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.00975904241</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036444</v>
+        <v>678.7208876442307</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036444</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.716165713678</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C14" t="n">
-        <v>207.4089578252748</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533133</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5306,22 +5306,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628376</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V14" t="n">
-        <v>1893.689751284805</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W14" t="n">
-        <v>1540.921096014691</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X14" t="n">
-        <v>1167.455337753612</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y14" t="n">
-        <v>777.3160057777998</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5376,22 +5376,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1954.141365880777</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>1800.761432218458</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1442.495733611708</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>1056.707481013463</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>645.7215762238559</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>227.7577681220428</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5525,40 +5525,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2680.375779411972</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W17" t="n">
-        <v>2327.607124141857</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X17" t="n">
-        <v>1954.141365880777</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y17" t="n">
-        <v>1954.141365880777</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5589,10 +5589,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
         <v>309.190302261463</v>
@@ -5601,34 +5601,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5701,22 +5701,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X19" t="n">
-        <v>500.1394333084171</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y19" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447095</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C20" t="n">
-        <v>1194.175505447095</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D20" t="n">
-        <v>1194.175505447095</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E20" t="n">
-        <v>1194.175505447095</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F20" t="n">
-        <v>783.1896006574877</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036446</v>
@@ -5750,13 +5750,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748109</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487029</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="21">
@@ -5832,7 +5832,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
         <v>670.8219208598711</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036446</v>
@@ -5947,13 +5947,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="C23" t="n">
-        <v>1546.94416071721</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="D23" t="n">
-        <v>1188.678462110459</v>
+        <v>1436.41718276985</v>
       </c>
       <c r="E23" t="n">
-        <v>802.8902095122148</v>
+        <v>1050.628930171606</v>
       </c>
       <c r="F23" t="n">
-        <v>391.9043047226073</v>
+        <v>639.6430253819985</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>221.6792172801854</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036446</v>
@@ -6017,22 +6017,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1794.682881376601</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4805193761947</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>546.4805193761947</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>396.3638799638589</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>248.4507863814658</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>101.5608388835555</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2180.667293341393</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1595.875667274027</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C26" t="n">
-        <v>1595.875667274027</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6245,31 +6245,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2570.839671955317</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2317.077886593409</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1986.014999249838</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1986.014999249838</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1986.014999249838</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.875667274027</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6321,7 +6321,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6409,25 +6409,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>940.9219833362306</v>
+        <v>1928.871178043376</v>
       </c>
       <c r="C29" t="n">
-        <v>571.9594663958189</v>
+        <v>1928.871178043376</v>
       </c>
       <c r="D29" t="n">
-        <v>571.9594663958189</v>
+        <v>1570.605479436626</v>
       </c>
       <c r="E29" t="n">
-        <v>571.9594663958189</v>
+        <v>1184.817226838381</v>
       </c>
       <c r="F29" t="n">
-        <v>160.9735616062114</v>
+        <v>773.8313220487737</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>355.8675139469606</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V29" t="n">
-        <v>2057.295728843236</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.527073573122</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="X29" t="n">
-        <v>1331.061315312042</v>
+        <v>1928.871178043376</v>
       </c>
       <c r="Y29" t="n">
-        <v>940.9219833362306</v>
+        <v>1928.871178043376</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>279.346854164887</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>279.346854164887</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>279.346854164887</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>279.346854164887</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>110.3470539032194</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1194.175505447094</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C32" t="n">
-        <v>825.2129885066827</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>466.9472898999322</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E32" t="n">
-        <v>466.9472898999322</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>466.9472898999322</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.775345511216</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204936</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615921</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.063382757264</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.317569050019</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>344.90437809669</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>344.90437809669</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>196.9912845142969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>196.9912845142969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>196.9912845142969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245969</v>
+        <v>2540.369809567132</v>
       </c>
       <c r="W34" t="n">
-        <v>513.8405610245969</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="X34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1964.838184214438</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C35" t="n">
-        <v>1595.875667274026</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274026</v>
+        <v>853.5471299640549</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>853.5471299640549</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861747</v>
+        <v>442.5612251744473</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2608.739301552158</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2354.97751619025</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2354.97751619025</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2354.97751619025</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X35" t="n">
-        <v>2354.97751619025</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y35" t="n">
-        <v>1964.838184214438</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D37" t="n">
-        <v>2678.586644293418</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E37" t="n">
-        <v>2678.586644293418</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F37" t="n">
-        <v>2531.696696795507</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G37" t="n">
-        <v>2362.69689653384</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065018</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>781.1711973675267</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C38" t="n">
-        <v>412.2086804271149</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U38" t="n">
-        <v>2228.607830218103</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V38" t="n">
-        <v>1897.544942874532</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>1544.776287604418</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>1171.310529343338</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y38" t="n">
-        <v>781.1711973675267</v>
+        <v>921.2035178533938</v>
       </c>
     </row>
     <row r="39">
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>463.5809975486215</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V40" t="n">
-        <v>463.5809975486215</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W40" t="n">
-        <v>463.5809975486215</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="X40" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="42">
@@ -7464,73 +7464,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204936</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615921</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.063382757264</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0446400632119</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036444</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1494.154169929768</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C44" t="n">
-        <v>1125.191652989356</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D44" t="n">
-        <v>766.9259543826058</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W44" t="n">
-        <v>2644.359100230781</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X44" t="n">
-        <v>2270.893341969701</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y44" t="n">
-        <v>1880.75400999389</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
         <v>713.8062203571349</v>
@@ -7737,13 +7737,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C46" t="n">
-        <v>667.8624625746712</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D46" t="n">
-        <v>517.7458231623355</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504495</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9249,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9480,10 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L21" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22562,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>189.2408288647579</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>219.4114360937589</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047548</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>303.7774505705572</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22796,13 +22796,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23002,13 +23002,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.4926690765069</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23039,7 +23039,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23066,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.6505120716953</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.84727966881354</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,10 +23224,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>16.73665413220931</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>75.03767962637764</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,28 +23416,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>118.3328055020463</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23458,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>197.6620873047941</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>183.7987559614884</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23513,7 +23513,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23732,7 +23732,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>151.8461343256956</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,25 +23777,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>311.146679979946</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>61.91178510854917</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>62.45749068994752</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,13 +23978,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>15.75279013640017</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>260.7615551004093</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,10 +24218,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>79.20246034757463</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>157.8638996591344</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24257,22 +24257,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>120.1681237664918</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24415,13 +24415,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168087</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>91.40199548538149</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053967</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,25 +24680,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>307.8238960328065</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>176.9488022038883</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>100.3308574797688</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24880,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,13 +24923,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.90990502202294</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,13 +25090,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>149.5186909671402</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25132,13 +25132,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724765</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,19 +25157,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>29.05210910025301</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>128.9226287862549</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>125.6297823812639</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,10 +25330,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2883697226015</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,10 +25406,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.816639673829513</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>371.3427523386201</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,10 +25567,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,13 +25603,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>171.044559430901</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053975</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>300.8083635436237</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,10 +25685,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>17.88169127836775</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,19 +25840,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>4.732187490914157</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>52.48018331775026</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>296.9788778378467</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,28 +26023,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>51.79469286292863</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26065,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,13 +26077,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.7136092102</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="C2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="D2" t="n">
+        <v>303610.2405165453</v>
+      </c>
+      <c r="E2" t="n">
         <v>303610.2405165457</v>
-      </c>
-      <c r="C2" t="n">
-        <v>303610.2405165454</v>
-      </c>
-      <c r="D2" t="n">
-        <v>303610.2405165455</v>
-      </c>
-      <c r="E2" t="n">
-        <v>303610.2405165453</v>
       </c>
       <c r="F2" t="n">
         <v>303610.2405165454</v>
@@ -26335,7 +26335,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="J2" t="n">
-        <v>303610.2405165456</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="K2" t="n">
         <v>303610.2405165454</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340947</v>
@@ -26491,25 +26491,25 @@
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-383570.3089093771</v>
+        <v>-387445.6443310718</v>
       </c>
       <c r="C6" t="n">
-        <v>206397.5703051673</v>
+        <v>202522.2348834728</v>
       </c>
       <c r="D6" t="n">
-        <v>206397.5703051673</v>
+        <v>202522.2348834726</v>
       </c>
       <c r="E6" t="n">
-        <v>240025.1703051671</v>
+        <v>236149.8348834729</v>
       </c>
       <c r="F6" t="n">
-        <v>240025.1703051673</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="G6" t="n">
-        <v>240025.1703051672</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="H6" t="n">
-        <v>240025.1703051674</v>
+        <v>236149.8348834729</v>
       </c>
       <c r="I6" t="n">
-        <v>240025.1703051672</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="J6" t="n">
-        <v>63601.95111257441</v>
+        <v>59726.61569087979</v>
       </c>
       <c r="K6" t="n">
-        <v>240025.1703051672</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="L6" t="n">
-        <v>240025.1703051672</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="M6" t="n">
-        <v>240025.1703051672</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="N6" t="n">
-        <v>240025.1703051673</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="O6" t="n">
-        <v>240025.1703051673</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="P6" t="n">
-        <v>240025.1703051672</v>
+        <v>236149.8348834726</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26762,22 +26762,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545557</v>
@@ -26811,25 +26811,25 @@
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,22 +33354,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,22 +33591,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33828,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,22 +34065,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,22 +34302,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34539,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435293</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181302</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,13 +35735,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>54.37527471535621</v>
@@ -35969,7 +35969,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338903</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L21" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37628,16 +37628,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
